--- a/Architecture/NUT16 Instruction set.xlsx
+++ b/Architecture/NUT16 Instruction set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukan\Desktop\cpp_dev\Custom Computer and Programing Language\Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6DE90B-B573-4D72-B295-CEF3B1E2ACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94727E86-B0DF-4BD6-A15D-E1310066EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47745" yWindow="0" windowWidth="9855" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="3" r:id="rId1"/>
@@ -1176,8 +1176,8 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -2358,11 +2358,11 @@
       </c>
       <c r="X17" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y17" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="X18" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y18" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
@@ -2512,11 +2512,11 @@
       </c>
       <c r="X19" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y19" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -2589,11 +2589,11 @@
       </c>
       <c r="X20" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y20" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
@@ -2666,11 +2666,11 @@
       </c>
       <c r="X21" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y21" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -2743,11 +2743,11 @@
       </c>
       <c r="X22" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y22" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="X23" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y23" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -2897,11 +2897,11 @@
       </c>
       <c r="X24" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y24" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="2">
         <v>0</v>
@@ -2974,11 +2974,11 @@
       </c>
       <c r="X25" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y25" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -3051,11 +3051,11 @@
       </c>
       <c r="X26" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y26" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
@@ -3128,11 +3128,11 @@
       </c>
       <c r="X27" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="Y27" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>0200</v>
+        <v>0210</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">

--- a/Architecture/NUT16 Instruction set.xlsx
+++ b/Architecture/NUT16 Instruction set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukan\Desktop\cpp_dev\Custom Computer and Programing Language\Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94727E86-B0DF-4BD6-A15D-E1310066EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA73CB34-C8AB-4581-8616-6678BBBE2096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47745" yWindow="0" windowWidth="9855" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="3" r:id="rId1"/>
@@ -395,9 +395,6 @@
     <t>rport r1</t>
   </si>
   <si>
-    <t>sport i1</t>
-  </si>
-  <si>
     <t>bpr label</t>
   </si>
   <si>
@@ -564,6 +561,9 @@
   </si>
   <si>
     <t>negate r1</t>
+  </si>
+  <si>
+    <t>port i1</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1176,8 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
         <v>40</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>41</v>
@@ -1250,13 +1250,13 @@
         <v>46</v>
       </c>
       <c r="O1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>68</v>
@@ -1286,16 +1286,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -1363,16 +1363,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1440,16 +1440,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1517,16 +1517,16 @@
         <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1594,16 +1594,16 @@
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1671,16 +1671,16 @@
         <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1854,16 +1854,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1931,16 +1931,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2191,16 +2191,16 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>50</v>
@@ -2374,13 +2374,13 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>51</v>
@@ -2451,16 +2451,16 @@
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -2528,16 +2528,16 @@
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -2759,16 +2759,16 @@
         <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -2907,22 +2907,22 @@
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -2984,22 +2984,22 @@
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -3067,13 +3067,13 @@
         <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>39</v>
@@ -3173,16 +3173,16 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -3250,16 +3250,16 @@
         <v>23</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -3327,16 +3327,16 @@
         <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G32" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -3558,16 +3558,16 @@
         <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G34" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -3712,16 +3712,16 @@
         <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G36" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -3789,16 +3789,16 @@
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G37" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G38" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>106</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -4020,16 +4020,16 @@
         <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -4097,16 +4097,16 @@
         <v>38</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G41" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -4174,16 +4174,16 @@
         <v>107</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G42" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -4251,16 +4251,16 @@
         <v>108</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G43" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -4328,16 +4328,16 @@
         <v>109</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G44" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -4405,16 +4405,16 @@
         <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G45" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -4482,16 +4482,16 @@
         <v>32</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G46" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -4559,16 +4559,16 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -4636,16 +4636,16 @@
         <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -4742,16 +4742,16 @@
         <v>62</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -4819,16 +4819,16 @@
         <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -4890,22 +4890,22 @@
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="5" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -4973,16 +4973,16 @@
         <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>35</v>
@@ -5079,13 +5079,13 @@
         <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>68</v>
